--- a/biology/Zoologie/Carukiidae/Carukiidae.xlsx
+++ b/biology/Zoologie/Carukiidae/Carukiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Carukiidae sont une famille de cuboméduses de l'ordre Carybdeida.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (23 janvier 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (23 janvier 2021) :
 genre Carukia Southcott, 1967
 genre Gerongia Gershwin &amp; Alderslade, 2005
 genre Malo Gershwin, 2005
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Bastian Bentlage, Paulyn Cartwright, Angel A Yanagihara, Cheryl Lewis, Gemma S. Richards et Allen G Collins, « Evolution of box jellyfish (Cnidaria: Cubozoa), a group of highly toxic invertebrates », Proceedings of the Royal Society B, Royal Society, vol. 277, no 1680,‎ 7 février 2010, p. 493-501 (ISSN 0962-8452 et 1471-2954, PMID 19923131, PMCID 2842657, DOI 10.1098/RSPB.2009.1707, lire en ligne)</t>
         </is>
